--- a/biology/Botanique/Zoospore/Zoospore.xlsx
+++ b/biology/Botanique/Zoospore/Zoospore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les zoospores (ou Sporozoïdes) sont des spores flagellées, mobiles dans l'eau et produites par certaines espèces de bactéries, algues, champignons (Fungi) et les  pseudochampignons[n 1] (Pseudomycota) apparentés aux algues[1] comme tous les Oomycètes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zoospores (ou Sporozoïdes) sont des spores flagellées, mobiles dans l'eau et produites par certaines espèces de bactéries, algues, champignons (Fungi) et les  pseudochampignons[n 1] (Pseudomycota) apparentés aux algues comme tous les Oomycètes.
 La propulsion autonome grâce aux flagelles est souvent associée au chimiotaxisme, permettant à la zoospore de se diriger en fonction de la diffusion de certaines espèces chimiques.
 Chez les champignons et pseudochampignons,
-Il existe quatre types de zoospores[2] :
+Il existe quatre types de zoospores :
 zoospores avec flagelle(s) postérieur(s), caractéristiques des Chytridiomycota. Chez la plupart de ces derniers, il n'existe qu'un flagelle postérieur (fig. 1a) mais chez les Neocallimastigales, il y en a jusqu'à 16 (fig.1b)
 zoospores biflagellées, avec deux flagelles de type fouet de longueur inégale (fig. 1c) ; on les trouve chez quelques Myxomycota et les Plasmodiophoromycota (ces deux champignons-animaux sont maintenant classés parmi les Protozoa)
 zoospores avec un flagelle antérieur (fig. 1 d) ; ce flagelle antérieur couvert de courts "poils" est caractéristique des Hyphochytriomycota. Il tire vers l'avant la spore par des mouvements rythmiques sinusoïdaux.
